--- a/ListasDatos/Saucedo Rivalcoba Graciela_2021.xlsx
+++ b/ListasDatos/Saucedo Rivalcoba Graciela_2021.xlsx
@@ -8,14 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="1AV" sheetId="1" r:id="rId1"/>
-    <sheet name="1AM" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="312">
   <si>
     <t>NC</t>
   </si>
@@ -479,6 +478,9 @@
     <t>jafet_tm@hotmail.com</t>
   </si>
   <si>
+    <t>yairu244@gmail.com</t>
+  </si>
+  <si>
     <t>2721150980</t>
   </si>
   <si>
@@ -593,6 +595,9 @@
     <t>2721119877</t>
   </si>
   <si>
+    <t>2722153753</t>
+  </si>
+  <si>
     <t>2721885313</t>
   </si>
   <si>
@@ -668,6 +673,9 @@
     <t>2722013483</t>
   </si>
   <si>
+    <t>2722173889</t>
+  </si>
+  <si>
     <t>SILVERIO ACEVEDO MENDEZ</t>
   </si>
   <si>
@@ -683,7 +691,7 @@
     <t>CLAUDIA IVETTE GARCIA GARCIA</t>
   </si>
   <si>
-    <t>MARIANA HERNANDEZ HERNANDEZ CARRERA HERNANDEZ</t>
+    <t>MARIANA CARRERA HERNANDEZ</t>
   </si>
   <si>
     <t>MIGUEL ANGEL COBOS SANCHEZ</t>
@@ -692,7 +700,7 @@
     <t>ALMA DELIA TZOYONTLE SANCHEZ</t>
   </si>
   <si>
-    <t>DOMINGO, NAZARIA CUATRA COYOHUA</t>
+    <t>DOMINGO CUATRA COYOHUA</t>
   </si>
   <si>
     <t>FELIPE DIAZ ROSAS</t>
@@ -725,7 +733,7 @@
     <t>MAURY ENRIQUEZ REYES</t>
   </si>
   <si>
-    <t>JUAN ESTEBAN PELLICO MAZAHUA PELLICO MAZAHUA</t>
+    <t>JUAN ESTEBAN PELLICO MAZAHUA</t>
   </si>
   <si>
     <t>ESPIRITU IMELDA GONZÁLEZ</t>
@@ -743,6 +751,9 @@
     <t>MARÍA CONCEPCIÓN SANCHEZ CANDELARIA</t>
   </si>
   <si>
+    <t>SARAY ROSETE YOPIHUA</t>
+  </si>
+  <si>
     <t>LOURDES GALLARDO COLORADO</t>
   </si>
   <si>
@@ -758,7 +769,7 @@
     <t>JESUS ROSAS CUENCA</t>
   </si>
   <si>
-    <t>TAMARA RIVERA VASQUEZ</t>
+    <t>TAMARA RIVERA VAZQUEZ</t>
   </si>
   <si>
     <t>BEATRIZ GONZALEZ CRUZ</t>
@@ -779,6 +790,9 @@
     <t>MARIA VICTORIA MENDOZA GOMEZ</t>
   </si>
   <si>
+    <t>ERNESTINA TREJO ROMERO</t>
+  </si>
+  <si>
     <t>miguelhernadez.151@outlook.com</t>
   </si>
   <si>
@@ -863,6 +877,9 @@
     <t>grm.96@hotmail.com</t>
   </si>
   <si>
+    <t>Urninaericka220@gmail.com</t>
+  </si>
+  <si>
     <t>2721688897</t>
   </si>
   <si>
@@ -905,6 +922,9 @@
     <t>2722958788</t>
   </si>
   <si>
+    <t>2721228070</t>
+  </si>
+  <si>
     <t>2721324255</t>
   </si>
   <si>
@@ -929,706 +949,7 @@
     <t>2722259780</t>
   </si>
   <si>
-    <t>ALVAREZ</t>
-  </si>
-  <si>
-    <t>ARIAS</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>BAROJAS</t>
-  </si>
-  <si>
-    <t>CUAQUEHUA</t>
-  </si>
-  <si>
-    <t>EVANGELISTA</t>
-  </si>
-  <si>
-    <t>ESPINOSA</t>
-  </si>
-  <si>
-    <t>FERNANDEZ</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
-    <t>LOYO</t>
-  </si>
-  <si>
-    <t>LORENZO</t>
-  </si>
-  <si>
-    <t>MACARIO</t>
-  </si>
-  <si>
-    <t>MAYO</t>
-  </si>
-  <si>
-    <t>MIXCOHUA</t>
-  </si>
-  <si>
-    <t>MOLOHUA</t>
-  </si>
-  <si>
-    <t>PASTRANA</t>
-  </si>
-  <si>
-    <t>RICO</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>RUIZ</t>
-  </si>
-  <si>
-    <t>SAN JUAN</t>
-  </si>
-  <si>
-    <t>SANDOVAL</t>
-  </si>
-  <si>
-    <t>SOLANO</t>
-  </si>
-  <si>
-    <t>TERRAZAS</t>
-  </si>
-  <si>
-    <t>TZITZIHUA</t>
-  </si>
-  <si>
-    <t>VIVAS</t>
-  </si>
-  <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>MONGE</t>
-  </si>
-  <si>
-    <t>TZANAHUA</t>
-  </si>
-  <si>
-    <t>DE LA LUZ</t>
-  </si>
-  <si>
-    <t>DIMAS</t>
-  </si>
-  <si>
-    <t>NERI</t>
-  </si>
-  <si>
-    <t>TEMOXTLE</t>
-  </si>
-  <si>
-    <t>PAZ</t>
-  </si>
-  <si>
-    <t>BAUTISTA</t>
-  </si>
-  <si>
-    <t>SOLIS</t>
-  </si>
-  <si>
-    <t>NIEVES</t>
-  </si>
-  <si>
-    <t>ORTEGA</t>
-  </si>
-  <si>
-    <t>AMECA</t>
-  </si>
-  <si>
-    <t>TLAXCALA</t>
-  </si>
-  <si>
-    <t>SAMUEL</t>
-  </si>
-  <si>
-    <t>CRISTIAN ALEXIS</t>
-  </si>
-  <si>
-    <t>CRISTHIAN</t>
-  </si>
-  <si>
-    <t>MARIEL</t>
-  </si>
-  <si>
-    <t>CARLOS DANIEL</t>
-  </si>
-  <si>
-    <t>JUAN GERARDO</t>
-  </si>
-  <si>
-    <t>ALEXANDER</t>
-  </si>
-  <si>
-    <t>EVELIN MAYRIN</t>
-  </si>
-  <si>
-    <t>MARIO</t>
-  </si>
-  <si>
-    <t>FELIX RAYMUNDO</t>
-  </si>
-  <si>
-    <t>SAUL</t>
-  </si>
-  <si>
-    <t>CRISTIAN FERNANDO</t>
-  </si>
-  <si>
-    <t>DIEGO ARMANDO</t>
-  </si>
-  <si>
-    <t>ROBERTO</t>
-  </si>
-  <si>
-    <t>MARIA JOSE</t>
-  </si>
-  <si>
-    <t>LUIS OMAR</t>
-  </si>
-  <si>
-    <t>SALVADOR</t>
-  </si>
-  <si>
-    <t>CHARBEL</t>
-  </si>
-  <si>
-    <t>TAURINO</t>
-  </si>
-  <si>
-    <t>YAHIR</t>
-  </si>
-  <si>
-    <t>GONZALO</t>
-  </si>
-  <si>
-    <t>CHRISTIAN GABRIEL</t>
-  </si>
-  <si>
-    <t>EYTHAN</t>
-  </si>
-  <si>
-    <t>JHOSUA LEVY</t>
-  </si>
-  <si>
-    <t>CANDIDO</t>
-  </si>
-  <si>
-    <t>ANGEL FIDEL</t>
-  </si>
-  <si>
-    <t>JONATHAN</t>
-  </si>
-  <si>
-    <t>MANUEL</t>
-  </si>
-  <si>
-    <t>MARIA REYNA</t>
-  </si>
-  <si>
-    <t>ADALY</t>
-  </si>
-  <si>
-    <t>CHRISTOFER</t>
-  </si>
-  <si>
-    <t>samuelalvarezcruz8@gmail.com</t>
-  </si>
-  <si>
-    <t>lorena31marcelino@gmail.com</t>
-  </si>
-  <si>
-    <t>cristhian1aguilar@gmail.com</t>
-  </si>
-  <si>
-    <t>marielbarajas56@gmail.com</t>
-  </si>
-  <si>
-    <t>carlosdct06@gmail.com</t>
-  </si>
-  <si>
-    <t>juanevangelista2006@gmail.com</t>
-  </si>
-  <si>
-    <t>alex1306carreespino@gmail.com</t>
-  </si>
-  <si>
-    <t>evelin.fernandez.dim@ver.nuevaescuela.mx</t>
-  </si>
-  <si>
-    <t>glztex12@gmail.com</t>
-  </si>
-  <si>
-    <t>sempai73622@gmail.com</t>
-  </si>
-  <si>
-    <t>sauldz284@gmail.com</t>
-  </si>
-  <si>
-    <t>cristianherixma05@gmail.com</t>
-  </si>
-  <si>
-    <t>migue14.lobo@gmail.com</t>
-  </si>
-  <si>
-    <t>yami_sau@hotmail.com</t>
-  </si>
-  <si>
-    <t>drosalas25@gmail.com</t>
-  </si>
-  <si>
-    <t>mmacarioneri@gmail.com</t>
-  </si>
-  <si>
-    <t>omarmayo688@gmail.com</t>
-  </si>
-  <si>
-    <t>lopezhuertasalvador0@gmail.com</t>
-  </si>
-  <si>
-    <t>charbelmixcohua72@gmail.com</t>
-  </si>
-  <si>
-    <t>taurinomz08@gmail.com</t>
-  </si>
-  <si>
-    <t>yahirmolohuam@gmail.com</t>
-  </si>
-  <si>
-    <t>gonpaz13@gmail.com</t>
-  </si>
-  <si>
-    <t>ricobautistachristiangabriel@gmail.com</t>
-  </si>
-  <si>
-    <t>mrtz.047@gmail.com</t>
-  </si>
-  <si>
-    <t>locovato630@gmail.com</t>
-  </si>
-  <si>
-    <t>candidoruiznieves@gmail.com</t>
-  </si>
-  <si>
-    <t>ASANGUI6LAR@gmail.com</t>
-  </si>
-  <si>
-    <t>sandovaljonathan4020@gmail.com</t>
-  </si>
-  <si>
-    <t>war044y@gmail.com</t>
-  </si>
-  <si>
-    <t>terrazasjuan019@gmail.com</t>
-  </si>
-  <si>
-    <t>ada14delacruz@gmail.com</t>
-  </si>
-  <si>
-    <t>christofervivasm@gmail.com</t>
-  </si>
-  <si>
-    <t>josefinatlaxcala05@gmail.com</t>
-  </si>
-  <si>
-    <t>samuelzepahua05@gmail.com</t>
-  </si>
-  <si>
-    <t>2721457408</t>
-  </si>
-  <si>
-    <t>2722059445</t>
-  </si>
-  <si>
-    <t>2727229038</t>
-  </si>
-  <si>
-    <t>2721234914</t>
-  </si>
-  <si>
-    <t>2722260760</t>
-  </si>
-  <si>
-    <t>2723352576</t>
-  </si>
-  <si>
-    <t>2727191801</t>
-  </si>
-  <si>
-    <t>2721991860</t>
-  </si>
-  <si>
-    <t>2721838504</t>
-  </si>
-  <si>
-    <t>2711919773</t>
-  </si>
-  <si>
-    <t>2721983055</t>
-  </si>
-  <si>
-    <t>2725726296</t>
-  </si>
-  <si>
-    <t>2721437839</t>
-  </si>
-  <si>
-    <t>2722358088</t>
-  </si>
-  <si>
-    <t>2721060456</t>
-  </si>
-  <si>
-    <t>2712190870</t>
-  </si>
-  <si>
-    <t>2722799603</t>
-  </si>
-  <si>
-    <t>2721909604</t>
-  </si>
-  <si>
-    <t>2722361963</t>
-  </si>
-  <si>
-    <t>2727821826</t>
-  </si>
-  <si>
-    <t>2722273308</t>
-  </si>
-  <si>
-    <t>2721418831</t>
-  </si>
-  <si>
-    <t>2722244793</t>
-  </si>
-  <si>
-    <t>2722279318</t>
-  </si>
-  <si>
-    <t>2722844899</t>
-  </si>
-  <si>
-    <t>2727052352</t>
-  </si>
-  <si>
-    <t>2723345541</t>
-  </si>
-  <si>
-    <t>2721372092</t>
-  </si>
-  <si>
-    <t>2722468852</t>
-  </si>
-  <si>
-    <t>2721527722</t>
-  </si>
-  <si>
-    <t>2722838588</t>
-  </si>
-  <si>
-    <t>2721353113</t>
-  </si>
-  <si>
-    <t>2727273315</t>
-  </si>
-  <si>
-    <t>2727210062</t>
-  </si>
-  <si>
-    <t>2723358670</t>
-  </si>
-  <si>
-    <t>2727826780</t>
-  </si>
-  <si>
-    <t>2722111769</t>
-  </si>
-  <si>
-    <t>2722062731</t>
-  </si>
-  <si>
-    <t>2727211400</t>
-  </si>
-  <si>
-    <t>2722076591</t>
-  </si>
-  <si>
-    <t>2713133868</t>
-  </si>
-  <si>
-    <t>2727213444</t>
-  </si>
-  <si>
-    <t>2721731094</t>
-  </si>
-  <si>
-    <t>2721060853</t>
-  </si>
-  <si>
-    <t>2722626900</t>
-  </si>
-  <si>
-    <t>2727241484</t>
-  </si>
-  <si>
-    <t>2727212910</t>
-  </si>
-  <si>
-    <t>MOISÉS ÁLVAREZ CRUZ</t>
-  </si>
-  <si>
-    <t>LORENA MIRIAM MARCELINO TORRES</t>
-  </si>
-  <si>
-    <t>ISABEL TEXCAHUA DEJESUS</t>
-  </si>
-  <si>
-    <t>VERONICA MONGE MORA</t>
-  </si>
-  <si>
-    <t>RUFINA TZANAHUA SANCHEZ</t>
-  </si>
-  <si>
-    <t>JUAN EVANGELISTA CORTEZ</t>
-  </si>
-  <si>
-    <t>ESTELA CARRERA IXMATLAHUA</t>
-  </si>
-  <si>
-    <t>VICENTE FERNANDEZ VALDES</t>
-  </si>
-  <si>
-    <t>ANA EDITH TEXCAHUA M.</t>
-  </si>
-  <si>
-    <t>SOCORRO LIZETH AGUILAR MORENO</t>
-  </si>
-  <si>
-    <t>JESUS HERNANDEZ AQUINO</t>
-  </si>
-  <si>
-    <t>FERNANDO IXMATLAHUA ANDRADE IXTACZOQUITLAN HERNANDEZ</t>
-  </si>
-  <si>
-    <t>ISABEL MONGE MORA</t>
-  </si>
-  <si>
-    <t>MARÍA DEL ROSARIO ROMERO GONZALEZ</t>
-  </si>
-  <si>
-    <t>DANAE ROSETE SALAS</t>
-  </si>
-  <si>
-    <t>RICARDO MACARIO SANCHEZ</t>
-  </si>
-  <si>
-    <t>REYNA TERESA TEMOXTLE CANO</t>
-  </si>
-  <si>
-    <t>WENDY LOPEZ HUERTA</t>
-  </si>
-  <si>
-    <t>LAURA IXMATLAHUA XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>ALMA AURORA ZEPAHUA TLAXCALA</t>
-  </si>
-  <si>
-    <t>ELVIRA MIXCOHUA XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>SILVIA RODRÍGUEZ SOLIS</t>
-  </si>
-  <si>
-    <t>OLGA GABRIELA BAUTISTA SANCHEZ</t>
-  </si>
-  <si>
-    <t>MARINA MARTINEZ MEJIA</t>
-  </si>
-  <si>
-    <t>LUCIA SOLIS GONZALEZ</t>
-  </si>
-  <si>
-    <t>E. CANDIDO RUIZ FLORES</t>
-  </si>
-  <si>
-    <t>MIGUELINA AGUILAR MACARIO</t>
-  </si>
-  <si>
-    <t>HORTENSIA ORTEGA ROSAS</t>
-  </si>
-  <si>
-    <t>FABIOLA AMECA GARCÍA</t>
-  </si>
-  <si>
-    <t>JUAN MANUEL TERRAZAS FLORES</t>
-  </si>
-  <si>
-    <t>JOSE TZITZIHUA ROJAS</t>
-  </si>
-  <si>
-    <t>LUZ MONSERRAT MIXCOHUA XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>JOSEFINA TLAXCALA COXCAHUA</t>
-  </si>
-  <si>
-    <t>VICENTA TZITZIHUA MARTINEZ</t>
-  </si>
-  <si>
-    <t>moises071417@gmail.com</t>
-  </si>
-  <si>
-    <t>Texcahuaisabel303@gmail.com</t>
-  </si>
-  <si>
-    <t>mongevero59@gmail.com</t>
-  </si>
-  <si>
-    <t>rufinatzsanchez@gmail.com</t>
-  </si>
-  <si>
-    <t>vicentef579@gmail.com</t>
-  </si>
-  <si>
-    <t>edithgt162002@gmail.com</t>
-  </si>
-  <si>
-    <t>aguilarsahi180@gmail.com</t>
-  </si>
-  <si>
-    <t>jesusaquino240@gmail.com</t>
-  </si>
-  <si>
-    <t>pl7350992@gmail.com</t>
-  </si>
-  <si>
-    <t>isabelmonge201@gmail.com</t>
-  </si>
-  <si>
-    <t>diegoarmandoloyoromero74@gmail.com</t>
-  </si>
-  <si>
-    <t>drosalas25@gmail</t>
-  </si>
-  <si>
-    <t>wendy_lh@hotmail.com</t>
-  </si>
-  <si>
-    <t>lixmatlahua702@gmail.com</t>
-  </si>
-  <si>
-    <t>almazepahua23@gmail.com</t>
-  </si>
-  <si>
-    <t>Vicmolohua@gmail.com</t>
-  </si>
-  <si>
-    <t>gaby_bautista73@hotmail.com</t>
-  </si>
-  <si>
-    <t>vato731523@gmail.com</t>
-  </si>
-  <si>
-    <t>guemiamac@gmail.com</t>
-  </si>
-  <si>
-    <t>hortensiaortegarosas@gmail.com</t>
-  </si>
-  <si>
-    <t>ameca06ga@gmail.com</t>
-  </si>
-  <si>
-    <t>cruz_abraham@hotmail.com</t>
-  </si>
-  <si>
-    <t>monserratmixcohua@gmail.com</t>
-  </si>
-  <si>
-    <t>2722427220</t>
-  </si>
-  <si>
-    <t>2722816752</t>
-  </si>
-  <si>
-    <t>2721052828</t>
-  </si>
-  <si>
-    <t>2721204863</t>
-  </si>
-  <si>
-    <t>2722791296</t>
-  </si>
-  <si>
-    <t>2721556409</t>
-  </si>
-  <si>
-    <t>2227570947</t>
-  </si>
-  <si>
-    <t>2722247856</t>
-  </si>
-  <si>
-    <t>2721538804</t>
-  </si>
-  <si>
-    <t>2721583992</t>
-  </si>
-  <si>
-    <t>2721141959</t>
-  </si>
-  <si>
-    <t>2721289689</t>
-  </si>
-  <si>
-    <t>2713133867</t>
-  </si>
-  <si>
-    <t>2721266427</t>
-  </si>
-  <si>
-    <t>2721221287</t>
-  </si>
-  <si>
-    <t>2712145415</t>
-  </si>
-  <si>
-    <t>2721184626</t>
-  </si>
-  <si>
-    <t>2721914221</t>
-  </si>
-  <si>
-    <t>2721967866</t>
-  </si>
-  <si>
-    <t>2721195880</t>
-  </si>
-  <si>
-    <t>2721355730</t>
-  </si>
-  <si>
-    <t>2727847485</t>
-  </si>
-  <si>
-    <t>2721162164</t>
-  </si>
-  <si>
-    <t>2721765674</t>
+    <t>2722052266</t>
   </si>
 </sst>
 </file>
@@ -2050,19 +1371,19 @@
         <v>116</v>
       </c>
       <c r="F2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I2" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="J2" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2082,19 +1403,19 @@
         <v>117</v>
       </c>
       <c r="F3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H3" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="I3" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="J3" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2114,16 +1435,16 @@
         <v>118</v>
       </c>
       <c r="F4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I4" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="J4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2143,16 +1464,16 @@
         <v>119</v>
       </c>
       <c r="F5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I5" t="s">
         <v>119</v>
       </c>
       <c r="J5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2172,16 +1493,16 @@
         <v>120</v>
       </c>
       <c r="F6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H6" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2201,19 +1522,19 @@
         <v>121</v>
       </c>
       <c r="F7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="I7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="J7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2233,16 +1554,16 @@
         <v>122</v>
       </c>
       <c r="F8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H8" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I8" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="J8" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2262,19 +1583,19 @@
         <v>123</v>
       </c>
       <c r="F9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H9" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I9" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="J9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2294,19 +1615,19 @@
         <v>124</v>
       </c>
       <c r="F10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H10" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I10" t="s">
         <v>124</v>
       </c>
       <c r="J10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2326,19 +1647,19 @@
         <v>125</v>
       </c>
       <c r="F11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H11" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I11" t="s">
         <v>125</v>
       </c>
       <c r="J11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2358,19 +1679,19 @@
         <v>126</v>
       </c>
       <c r="F12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G12" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H12" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="I12" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="J12" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2390,16 +1711,16 @@
         <v>119</v>
       </c>
       <c r="F13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H13" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I13" t="s">
         <v>119</v>
       </c>
       <c r="J13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2419,16 +1740,16 @@
         <v>127</v>
       </c>
       <c r="F14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H14" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="I14" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="J14" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2448,19 +1769,19 @@
         <v>128</v>
       </c>
       <c r="F15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G15" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H15" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I15" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="J15" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2480,19 +1801,19 @@
         <v>129</v>
       </c>
       <c r="F16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G16" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H16" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="I16" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="J16" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2512,16 +1833,16 @@
         <v>130</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H17" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="I17" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="J17" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2541,19 +1862,19 @@
         <v>131</v>
       </c>
       <c r="F18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H18" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="I18" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="J18" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2573,19 +1894,19 @@
         <v>132</v>
       </c>
       <c r="F19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G19" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H19" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="I19" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="J19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2605,19 +1926,19 @@
         <v>133</v>
       </c>
       <c r="F20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G20" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H20" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="I20" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="J20" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2637,16 +1958,16 @@
         <v>134</v>
       </c>
       <c r="G21" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H21" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I21" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="J21" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2666,19 +1987,19 @@
         <v>135</v>
       </c>
       <c r="F22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G22" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H22" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="I22" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="J22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2698,16 +2019,16 @@
         <v>136</v>
       </c>
       <c r="F23" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H23" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I23" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="J23" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2727,19 +2048,19 @@
         <v>137</v>
       </c>
       <c r="F24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G24" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H24" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="I24" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="J24" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2759,16 +2080,16 @@
         <v>138</v>
       </c>
       <c r="F25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H25" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="I25" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="J25" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2788,19 +2109,19 @@
         <v>139</v>
       </c>
       <c r="F26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H26" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="I26" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="J26" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2820,19 +2141,19 @@
         <v>140</v>
       </c>
       <c r="F27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G27" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H27" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="I27" t="s">
         <v>140</v>
       </c>
       <c r="J27" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2852,10 +2173,16 @@
         <v>141</v>
       </c>
       <c r="F28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G28" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="H28" t="s">
+        <v>245</v>
+      </c>
+      <c r="J28" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2875,19 +2202,19 @@
         <v>142</v>
       </c>
       <c r="F29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G29" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H29" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="I29" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="J29" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2907,19 +2234,19 @@
         <v>143</v>
       </c>
       <c r="F30" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G30" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H30" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="I30" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="J30" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2939,19 +2266,19 @@
         <v>144</v>
       </c>
       <c r="F31" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G31" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H31" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="I31" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="J31" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2971,19 +2298,19 @@
         <v>145</v>
       </c>
       <c r="F32" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G32" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H32" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="I32" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="J32" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -3003,19 +2330,19 @@
         <v>146</v>
       </c>
       <c r="F33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H33" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="I33" t="s">
         <v>146</v>
       </c>
       <c r="J33" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3035,19 +2362,19 @@
         <v>147</v>
       </c>
       <c r="F34" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G34" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H34" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="I34" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="J34" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -3067,19 +2394,19 @@
         <v>148</v>
       </c>
       <c r="F35" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G35" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H35" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I35" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="J35" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -3099,16 +2426,16 @@
         <v>149</v>
       </c>
       <c r="F36" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G36" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H36" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="J36" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -3128,16 +2455,16 @@
         <v>150</v>
       </c>
       <c r="F37" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G37" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H37" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="J37" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -3157,19 +2484,19 @@
         <v>151</v>
       </c>
       <c r="F38" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G38" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H38" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="I38" t="s">
         <v>151</v>
       </c>
       <c r="J38" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -3189,19 +2516,19 @@
         <v>152</v>
       </c>
       <c r="F39" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G39" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H39" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I39" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="J39" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -3221,19 +2548,19 @@
         <v>153</v>
       </c>
       <c r="F40" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G40" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H40" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="I40" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="J40" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -3249,1087 +2576,23 @@
       <c r="D41" t="s">
         <v>115</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" customWidth="1"/>
-    <col min="6" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="50.7109375" customWidth="1"/>
-    <col min="9" max="9" width="35.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
-        <v>21330051920151</v>
-      </c>
-      <c r="B2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" t="s">
-        <v>345</v>
-      </c>
-      <c r="E2" t="s">
-        <v>376</v>
-      </c>
-      <c r="F2" t="s">
-        <v>410</v>
-      </c>
-      <c r="G2" t="s">
-        <v>442</v>
-      </c>
-      <c r="H2" t="s">
-        <v>457</v>
-      </c>
-      <c r="I2" t="s">
-        <v>491</v>
-      </c>
-      <c r="J2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
-        <v>21330051920152</v>
-      </c>
-      <c r="B3" t="s">
-        <v>305</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" t="s">
-        <v>346</v>
-      </c>
-      <c r="E3" t="s">
-        <v>377</v>
-      </c>
-      <c r="F3" t="s">
-        <v>411</v>
-      </c>
-      <c r="G3" t="s">
-        <v>443</v>
-      </c>
-      <c r="H3" t="s">
-        <v>458</v>
-      </c>
-      <c r="I3" t="s">
-        <v>377</v>
-      </c>
-      <c r="J3" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <v>21330051920153</v>
-      </c>
-      <c r="B4" t="s">
-        <v>306</v>
-      </c>
-      <c r="C4" t="s">
-        <v>331</v>
-      </c>
-      <c r="D4" t="s">
-        <v>347</v>
-      </c>
-      <c r="E4" t="s">
-        <v>378</v>
-      </c>
-      <c r="F4" t="s">
-        <v>412</v>
-      </c>
-      <c r="H4" t="s">
-        <v>459</v>
-      </c>
-      <c r="I4" t="s">
-        <v>492</v>
-      </c>
-      <c r="J4" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <v>21330051920154</v>
-      </c>
-      <c r="B5" t="s">
-        <v>307</v>
-      </c>
-      <c r="C5" t="s">
-        <v>332</v>
-      </c>
-      <c r="D5" t="s">
-        <v>348</v>
-      </c>
-      <c r="E5" t="s">
-        <v>379</v>
-      </c>
-      <c r="F5" t="s">
-        <v>413</v>
-      </c>
-      <c r="G5" t="s">
-        <v>444</v>
-      </c>
-      <c r="H5" t="s">
-        <v>460</v>
-      </c>
-      <c r="I5" t="s">
-        <v>493</v>
-      </c>
-      <c r="J5" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
-        <v>21330051920155</v>
-      </c>
-      <c r="B6" t="s">
-        <v>308</v>
-      </c>
-      <c r="C6" t="s">
-        <v>333</v>
-      </c>
-      <c r="D6" t="s">
-        <v>349</v>
-      </c>
-      <c r="E6" t="s">
-        <v>380</v>
-      </c>
-      <c r="F6" t="s">
-        <v>414</v>
-      </c>
-      <c r="H6" t="s">
-        <v>461</v>
-      </c>
-      <c r="I6" t="s">
-        <v>494</v>
-      </c>
-      <c r="J6" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
-        <v>21330051920156</v>
-      </c>
-      <c r="B7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C7" t="s">
-        <v>334</v>
-      </c>
-      <c r="D7" t="s">
-        <v>350</v>
-      </c>
-      <c r="E7" t="s">
-        <v>381</v>
-      </c>
-      <c r="F7" t="s">
-        <v>415</v>
-      </c>
-      <c r="H7" t="s">
-        <v>462</v>
-      </c>
-      <c r="J7" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
-        <v>21330051920157</v>
-      </c>
-      <c r="B8" t="s">
-        <v>310</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>351</v>
-      </c>
-      <c r="E8" t="s">
-        <v>382</v>
-      </c>
-      <c r="F8" t="s">
-        <v>416</v>
-      </c>
-      <c r="G8" t="s">
-        <v>445</v>
-      </c>
-      <c r="H8" t="s">
-        <v>463</v>
-      </c>
-      <c r="I8" t="s">
-        <v>382</v>
-      </c>
-      <c r="J8" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
-        <v>21330051920158</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="E41" t="s">
+        <v>154</v>
+      </c>
+      <c r="F41" t="s">
+        <v>193</v>
+      </c>
+      <c r="G41" t="s">
+        <v>219</v>
+      </c>
+      <c r="H41" t="s">
+        <v>258</v>
+      </c>
+      <c r="I41" t="s">
+        <v>287</v>
+      </c>
+      <c r="J41" t="s">
         <v>311</v>
-      </c>
-      <c r="C9" t="s">
-        <v>335</v>
-      </c>
-      <c r="D9" t="s">
-        <v>352</v>
-      </c>
-      <c r="E9" t="s">
-        <v>383</v>
-      </c>
-      <c r="F9" t="s">
-        <v>417</v>
-      </c>
-      <c r="G9" t="s">
-        <v>446</v>
-      </c>
-      <c r="H9" t="s">
-        <v>464</v>
-      </c>
-      <c r="I9" t="s">
-        <v>495</v>
-      </c>
-      <c r="J9" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
-        <v>21330051920159</v>
-      </c>
-      <c r="B10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" t="s">
-        <v>331</v>
-      </c>
-      <c r="D10" t="s">
-        <v>353</v>
-      </c>
-      <c r="E10" t="s">
-        <v>384</v>
-      </c>
-      <c r="F10" t="s">
-        <v>418</v>
-      </c>
-      <c r="G10" t="s">
-        <v>418</v>
-      </c>
-      <c r="H10" t="s">
-        <v>465</v>
-      </c>
-      <c r="I10" t="s">
-        <v>496</v>
-      </c>
-      <c r="J10" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11">
-        <v>21330051920160</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>306</v>
-      </c>
-      <c r="D11" t="s">
-        <v>354</v>
-      </c>
-      <c r="E11" t="s">
-        <v>385</v>
-      </c>
-      <c r="F11" t="s">
-        <v>419</v>
-      </c>
-      <c r="G11" t="s">
-        <v>419</v>
-      </c>
-      <c r="H11" t="s">
-        <v>466</v>
-      </c>
-      <c r="I11" t="s">
-        <v>497</v>
-      </c>
-      <c r="J11" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12">
-        <v>21330051920161</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>355</v>
-      </c>
-      <c r="E12" t="s">
-        <v>386</v>
-      </c>
-      <c r="F12" t="s">
-        <v>420</v>
-      </c>
-      <c r="H12" t="s">
-        <v>467</v>
-      </c>
-      <c r="I12" t="s">
-        <v>498</v>
-      </c>
-      <c r="J12" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13">
-        <v>21330051920162</v>
-      </c>
-      <c r="B13" t="s">
-        <v>312</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>356</v>
-      </c>
-      <c r="E13" t="s">
-        <v>387</v>
-      </c>
-      <c r="F13" t="s">
-        <v>421</v>
-      </c>
-      <c r="H13" t="s">
-        <v>468</v>
-      </c>
-      <c r="I13" t="s">
-        <v>499</v>
-      </c>
-      <c r="J13" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14">
-        <v>21330051920163</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>332</v>
-      </c>
-      <c r="D14" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" t="s">
-        <v>388</v>
-      </c>
-      <c r="G14" t="s">
-        <v>447</v>
-      </c>
-      <c r="H14" t="s">
-        <v>469</v>
-      </c>
-      <c r="I14" t="s">
-        <v>500</v>
-      </c>
-      <c r="J14" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15">
-        <v>21330051920164</v>
-      </c>
-      <c r="B15" t="s">
-        <v>313</v>
-      </c>
-      <c r="C15" t="s">
-        <v>321</v>
-      </c>
-      <c r="D15" t="s">
-        <v>357</v>
-      </c>
-      <c r="E15" t="s">
-        <v>389</v>
-      </c>
-      <c r="F15" t="s">
-        <v>422</v>
-      </c>
-      <c r="H15" t="s">
-        <v>470</v>
-      </c>
-      <c r="I15" t="s">
-        <v>501</v>
-      </c>
-      <c r="J15" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16">
-        <v>21330051920165</v>
-      </c>
-      <c r="B16" t="s">
-        <v>314</v>
-      </c>
-      <c r="C16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" t="s">
-        <v>358</v>
-      </c>
-      <c r="E16" t="s">
-        <v>390</v>
-      </c>
-      <c r="F16" t="s">
-        <v>423</v>
-      </c>
-      <c r="G16" t="s">
-        <v>448</v>
-      </c>
-      <c r="H16" t="s">
-        <v>471</v>
-      </c>
-      <c r="I16" t="s">
-        <v>502</v>
-      </c>
-      <c r="J16" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17">
-        <v>21330051920166</v>
-      </c>
-      <c r="B17" t="s">
-        <v>315</v>
-      </c>
-      <c r="C17" t="s">
-        <v>336</v>
-      </c>
-      <c r="D17" t="s">
-        <v>359</v>
-      </c>
-      <c r="E17" t="s">
-        <v>391</v>
-      </c>
-      <c r="F17" t="s">
-        <v>424</v>
-      </c>
-      <c r="G17" t="s">
-        <v>449</v>
-      </c>
-      <c r="H17" t="s">
-        <v>472</v>
-      </c>
-      <c r="I17" t="s">
-        <v>391</v>
-      </c>
-      <c r="J17" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18">
-        <v>21330051920167</v>
-      </c>
-      <c r="B18" t="s">
-        <v>316</v>
-      </c>
-      <c r="C18" t="s">
-        <v>337</v>
-      </c>
-      <c r="D18" t="s">
-        <v>360</v>
-      </c>
-      <c r="E18" t="s">
-        <v>392</v>
-      </c>
-      <c r="F18" t="s">
-        <v>425</v>
-      </c>
-      <c r="G18" t="s">
-        <v>450</v>
-      </c>
-      <c r="H18" t="s">
-        <v>473</v>
-      </c>
-      <c r="J18" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19">
-        <v>21330051920168</v>
-      </c>
-      <c r="B19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>361</v>
-      </c>
-      <c r="E19" t="s">
-        <v>393</v>
-      </c>
-      <c r="F19" t="s">
-        <v>426</v>
-      </c>
-      <c r="G19" t="s">
-        <v>426</v>
-      </c>
-      <c r="H19" t="s">
-        <v>474</v>
-      </c>
-      <c r="I19" t="s">
-        <v>503</v>
-      </c>
-      <c r="J19" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20">
-        <v>21330051920169</v>
-      </c>
-      <c r="B20" t="s">
-        <v>317</v>
-      </c>
-      <c r="C20" t="s">
-        <v>312</v>
-      </c>
-      <c r="D20" t="s">
-        <v>362</v>
-      </c>
-      <c r="E20" t="s">
-        <v>394</v>
-      </c>
-      <c r="F20" t="s">
-        <v>427</v>
-      </c>
-      <c r="G20" t="s">
-        <v>427</v>
-      </c>
-      <c r="H20" t="s">
-        <v>475</v>
-      </c>
-      <c r="I20" t="s">
-        <v>504</v>
-      </c>
-      <c r="J20" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21">
-        <v>21330051920170</v>
-      </c>
-      <c r="B21" t="s">
-        <v>317</v>
-      </c>
-      <c r="C21" t="s">
-        <v>330</v>
-      </c>
-      <c r="D21" t="s">
-        <v>363</v>
-      </c>
-      <c r="E21" t="s">
-        <v>395</v>
-      </c>
-      <c r="F21" t="s">
-        <v>428</v>
-      </c>
-      <c r="H21" t="s">
-        <v>476</v>
-      </c>
-      <c r="I21" t="s">
-        <v>505</v>
-      </c>
-      <c r="J21" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22">
-        <v>21330051920171</v>
-      </c>
-      <c r="B22" t="s">
-        <v>318</v>
-      </c>
-      <c r="C22" t="s">
-        <v>317</v>
-      </c>
-      <c r="D22" t="s">
-        <v>364</v>
-      </c>
-      <c r="E22" t="s">
-        <v>396</v>
-      </c>
-      <c r="F22" t="s">
-        <v>429</v>
-      </c>
-      <c r="H22" t="s">
-        <v>477</v>
-      </c>
-      <c r="I22" t="s">
-        <v>506</v>
-      </c>
-      <c r="J22" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23">
-        <v>21330051920172</v>
-      </c>
-      <c r="B23" t="s">
-        <v>319</v>
-      </c>
-      <c r="C23" t="s">
-        <v>338</v>
-      </c>
-      <c r="D23" t="s">
-        <v>365</v>
-      </c>
-      <c r="E23" t="s">
-        <v>397</v>
-      </c>
-      <c r="F23" t="s">
-        <v>430</v>
-      </c>
-      <c r="G23" t="s">
-        <v>451</v>
-      </c>
-      <c r="H23" t="s">
-        <v>478</v>
-      </c>
-      <c r="I23" t="s">
-        <v>397</v>
-      </c>
-      <c r="J23" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24">
-        <v>21330051920173</v>
-      </c>
-      <c r="B24" t="s">
-        <v>320</v>
-      </c>
-      <c r="C24" t="s">
-        <v>339</v>
-      </c>
-      <c r="D24" t="s">
-        <v>366</v>
-      </c>
-      <c r="E24" t="s">
-        <v>398</v>
-      </c>
-      <c r="F24" t="s">
-        <v>431</v>
-      </c>
-      <c r="G24" t="s">
-        <v>452</v>
-      </c>
-      <c r="H24" t="s">
-        <v>479</v>
-      </c>
-      <c r="I24" t="s">
-        <v>507</v>
-      </c>
-      <c r="J24" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25">
-        <v>21330051920174</v>
-      </c>
-      <c r="B25" t="s">
-        <v>321</v>
-      </c>
-      <c r="C25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" t="s">
-        <v>367</v>
-      </c>
-      <c r="E25" t="s">
-        <v>399</v>
-      </c>
-      <c r="F25" t="s">
-        <v>432</v>
-      </c>
-      <c r="G25" t="s">
-        <v>453</v>
-      </c>
-      <c r="H25" t="s">
-        <v>480</v>
-      </c>
-      <c r="I25" t="s">
-        <v>399</v>
-      </c>
-      <c r="J25" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26">
-        <v>21330051920175</v>
-      </c>
-      <c r="B26" t="s">
-        <v>322</v>
-      </c>
-      <c r="C26" t="s">
-        <v>340</v>
-      </c>
-      <c r="D26" t="s">
-        <v>368</v>
-      </c>
-      <c r="E26" t="s">
-        <v>400</v>
-      </c>
-      <c r="F26" t="s">
-        <v>433</v>
-      </c>
-      <c r="H26" t="s">
-        <v>481</v>
-      </c>
-      <c r="I26" t="s">
-        <v>508</v>
-      </c>
-      <c r="J26" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27">
-        <v>21330051920176</v>
-      </c>
-      <c r="B27" t="s">
-        <v>323</v>
-      </c>
-      <c r="C27" t="s">
-        <v>341</v>
-      </c>
-      <c r="D27" t="s">
-        <v>369</v>
-      </c>
-      <c r="E27" t="s">
-        <v>401</v>
-      </c>
-      <c r="G27" t="s">
-        <v>454</v>
-      </c>
-      <c r="H27" t="s">
-        <v>482</v>
-      </c>
-      <c r="J27" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28">
-        <v>21330051920177</v>
-      </c>
-      <c r="B28" t="s">
-        <v>324</v>
-      </c>
-      <c r="C28" t="s">
-        <v>306</v>
-      </c>
-      <c r="D28" t="s">
-        <v>370</v>
-      </c>
-      <c r="E28" t="s">
-        <v>402</v>
-      </c>
-      <c r="F28" t="s">
-        <v>434</v>
-      </c>
-      <c r="G28" t="s">
-        <v>455</v>
-      </c>
-      <c r="H28" t="s">
-        <v>483</v>
-      </c>
-      <c r="I28" t="s">
-        <v>509</v>
-      </c>
-      <c r="J28" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29">
-        <v>21330051920178</v>
-      </c>
-      <c r="B29" t="s">
-        <v>325</v>
-      </c>
-      <c r="C29" t="s">
-        <v>342</v>
-      </c>
-      <c r="D29" t="s">
-        <v>371</v>
-      </c>
-      <c r="E29" t="s">
-        <v>403</v>
-      </c>
-      <c r="F29" t="s">
-        <v>435</v>
-      </c>
-      <c r="H29" t="s">
-        <v>484</v>
-      </c>
-      <c r="I29" t="s">
-        <v>510</v>
-      </c>
-      <c r="J29" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30">
-        <v>21330051920179</v>
-      </c>
-      <c r="B30" t="s">
-        <v>326</v>
-      </c>
-      <c r="C30" t="s">
-        <v>343</v>
-      </c>
-      <c r="D30" t="s">
-        <v>372</v>
-      </c>
-      <c r="E30" t="s">
-        <v>404</v>
-      </c>
-      <c r="F30" t="s">
-        <v>436</v>
-      </c>
-      <c r="H30" t="s">
-        <v>485</v>
-      </c>
-      <c r="I30" t="s">
-        <v>511</v>
-      </c>
-      <c r="J30" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31">
-        <v>21330051920180</v>
-      </c>
-      <c r="B31" t="s">
-        <v>327</v>
-      </c>
-      <c r="C31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" t="s">
-        <v>373</v>
-      </c>
-      <c r="E31" t="s">
-        <v>405</v>
-      </c>
-      <c r="F31" t="s">
-        <v>437</v>
-      </c>
-      <c r="G31" t="s">
-        <v>456</v>
-      </c>
-      <c r="H31" t="s">
-        <v>486</v>
-      </c>
-      <c r="I31" t="s">
-        <v>405</v>
-      </c>
-      <c r="J31" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32">
-        <v>21330051920181</v>
-      </c>
-      <c r="B32" t="s">
-        <v>328</v>
-      </c>
-      <c r="C32" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" t="s">
-        <v>374</v>
-      </c>
-      <c r="E32" t="s">
-        <v>406</v>
-      </c>
-      <c r="F32" t="s">
-        <v>438</v>
-      </c>
-      <c r="H32" t="s">
-        <v>487</v>
-      </c>
-      <c r="I32" t="s">
-        <v>512</v>
-      </c>
-      <c r="J32" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33">
-        <v>21330051920182</v>
-      </c>
-      <c r="B33" t="s">
-        <v>329</v>
-      </c>
-      <c r="C33" t="s">
-        <v>317</v>
-      </c>
-      <c r="D33" t="s">
-        <v>375</v>
-      </c>
-      <c r="E33" t="s">
-        <v>407</v>
-      </c>
-      <c r="F33" t="s">
-        <v>439</v>
-      </c>
-      <c r="H33" t="s">
-        <v>488</v>
-      </c>
-      <c r="I33" t="s">
-        <v>513</v>
-      </c>
-      <c r="J33" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34">
-        <v>21330051920183</v>
-      </c>
-      <c r="B34" t="s">
-        <v>329</v>
-      </c>
-      <c r="C34" t="s">
-        <v>344</v>
-      </c>
-      <c r="D34" t="s">
-        <v>359</v>
-      </c>
-      <c r="E34" t="s">
-        <v>408</v>
-      </c>
-      <c r="F34" t="s">
-        <v>440</v>
-      </c>
-      <c r="G34" t="s">
-        <v>440</v>
-      </c>
-      <c r="H34" t="s">
-        <v>489</v>
-      </c>
-      <c r="I34" t="s">
-        <v>408</v>
-      </c>
-      <c r="J34" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35">
-        <v>21330051920184</v>
-      </c>
-      <c r="B35" t="s">
-        <v>330</v>
-      </c>
-      <c r="C35" t="s">
-        <v>328</v>
-      </c>
-      <c r="D35" t="s">
-        <v>345</v>
-      </c>
-      <c r="E35" t="s">
-        <v>409</v>
-      </c>
-      <c r="F35" t="s">
-        <v>441</v>
-      </c>
-      <c r="H35" t="s">
-        <v>490</v>
-      </c>
-      <c r="J35" t="s">
-        <v>537</v>
       </c>
     </row>
   </sheetData>
